--- a/DropDateSeries.xlsx
+++ b/DropDateSeries.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
         <v>44571</v>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -478,7 +478,7 @@
         <v>44574</v>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -494,7 +494,7 @@
         <v>44576</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +518,215 @@
         <v>44579</v>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44582</v>
+      </c>
+      <c r="B13" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44583</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44584</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44585</v>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44586</v>
+      </c>
+      <c r="B17" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44588</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44589</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44590</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44591</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B23" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="B26" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44596</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44597</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44598</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="B30" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="B31" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
